--- a/machine code example (new version).xlsx
+++ b/machine code example (new version).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaust-my.sharepoint.com/personal/yangk0a_kaust_edu_sa/Documents/CS 294V System Architecture and Performance/course project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="8_{E6FB3E5B-104E-41E0-8C77-57216662E2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCB6CAE-2948-4F4F-B8F3-027914ECB23D}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="8_{E6FB3E5B-104E-41E0-8C77-57216662E2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D11CA7-C0CD-9B46-8A39-9258FA575998}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="491" xr2:uid="{307FB8FA-991E-46BD-9566-A16C12FF64AB}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="491" xr2:uid="{307FB8FA-991E-46BD-9566-A16C12FF64AB}"/>
   </bookViews>
   <sheets>
     <sheet name="New version" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="239">
   <si>
     <t>latch of rd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,12 +1044,48 @@
     <t>Immediate used for if/else</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latch of the fetched instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lopcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latch of the fetched Opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instruction decode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values from instructions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instruction execute unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,12 +1235,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1233,15 +1263,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,179 +1582,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9C6471-D296-4CBA-A2DA-6AFEACE2AC45}">
-  <dimension ref="A1:CN5"/>
+  <dimension ref="A1:CP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CN13" sqref="CN13"/>
+      <selection activeCell="CO13" sqref="CO13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="4.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="58" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="63" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.1640625" style="4" customWidth="1"/>
-    <col min="67" max="67" width="7.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="27.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.1640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="60" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.83203125" style="4" customWidth="1"/>
-    <col min="83" max="83" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="15.5" style="4" customWidth="1"/>
-    <col min="86" max="86" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="164.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.83203125" style="4" customWidth="1"/>
+    <col min="85" max="85" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.5" style="4" customWidth="1"/>
+    <col min="88" max="88" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="163.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="9"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="9"/>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="9"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="9"/>
-      <c r="CI1" s="9"/>
-      <c r="CJ1" s="9"/>
-      <c r="CK1" s="9"/>
-      <c r="CL1" s="9"/>
-      <c r="CM1" s="9"/>
-      <c r="CN1" s="8" t="s">
+      <c r="C1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:94">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -1746,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
@@ -1758,10 +1793,10 @@
         <v>4</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
@@ -1782,77 +1817,77 @@
         <v>1</v>
       </c>
       <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
         <v>4</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>4</v>
       </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
       <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
       <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
         <v>4</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AD2" s="1">
         <v>4</v>
       </c>
-      <c r="AC2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="13">
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
         <v>1</v>
       </c>
       <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
         <v>4</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AM2" s="1">
         <v>4</v>
       </c>
-      <c r="AL2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
       <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
         <v>4</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AQ2" s="1">
         <v>4</v>
       </c>
-      <c r="AP2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>1</v>
-      </c>
       <c r="AR2" s="1">
         <v>1</v>
       </c>
@@ -1868,10 +1903,10 @@
       <c r="AV2" s="1">
         <v>1</v>
       </c>
-      <c r="AW2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="13">
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="1">
         <v>1</v>
       </c>
       <c r="AY2" s="1">
@@ -1892,24 +1927,24 @@
       <c r="BD2" s="1">
         <v>1</v>
       </c>
-      <c r="BE2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="13">
+      <c r="BE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1">
         <v>2</v>
       </c>
-      <c r="BH2" s="13">
+      <c r="BJ2" s="1">
         <v>2</v>
       </c>
-      <c r="BI2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>1</v>
-      </c>
       <c r="BK2" s="1">
         <v>1</v>
       </c>
@@ -1925,14 +1960,14 @@
       <c r="BO2" s="1">
         <v>1</v>
       </c>
-      <c r="BP2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="13">
+      <c r="BP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1">
         <v>1</v>
       </c>
       <c r="BR2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="1">
         <v>1</v>
@@ -1940,156 +1975,162 @@
       <c r="BT2" s="1">
         <v>4</v>
       </c>
-      <c r="BU2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="13">
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1">
         <v>4</v>
       </c>
-      <c r="CA2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="13">
+      <c r="BW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="1">
         <v>4</v>
       </c>
-      <c r="CC2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CE2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CF2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="13">
+      <c r="CC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="1">
         <v>4</v>
       </c>
-      <c r="CH2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="13">
+      <c r="CE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="1">
         <v>4</v>
       </c>
-      <c r="CL2" s="13">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="13">
-        <v>1</v>
+      <c r="CJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>4</v>
       </c>
       <c r="CN2" s="1">
-        <f>SUM(C2:CM2)</f>
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="1">
+        <f>SUM(C2:CO2)</f>
+        <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:92" ht="126" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" ht="144">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>221</v>
@@ -2106,465 +2147,477 @@
       <c r="AI3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AM3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BR3" s="10" t="s">
+      <c r="BT3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BT3" s="10" t="s">
+      <c r="BV3" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="BU3" s="10" t="s">
+      <c r="BW3" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BX3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BW3" s="10" t="s">
+      <c r="BY3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="BX3" s="10" t="s">
+      <c r="BZ3" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="BY3" s="10" t="s">
+      <c r="CA3" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="BZ3" s="10" t="s">
+      <c r="CB3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="CA3" s="10" t="s">
+      <c r="CC3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="CB3" s="10" t="s">
+      <c r="CD3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="CG3" s="10" t="s">
+      <c r="CI3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CP3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AD4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AV4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AX4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AY4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="BA4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="BB4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BC4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BB4" s="8" t="s">
+      <c r="BD4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BC4" s="8" t="s">
+      <c r="BE4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BD4" s="8" t="s">
+      <c r="BF4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BG4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="BF4" s="9" t="s">
+      <c r="BH4" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BI4" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BJ4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BK4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="BJ4" s="8" t="s">
+      <c r="BL4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BK4" s="8" t="s">
+      <c r="BM4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="BL4" s="8" t="s">
+      <c r="BN4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="BM4" s="8" t="s">
+      <c r="BO4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BN4" s="8" t="s">
+      <c r="BP4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="BO4" s="8" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="BP4" s="9" t="s">
+      <c r="BR4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BQ4" s="9" t="s">
+      <c r="BS4" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="BR4" s="8" t="s">
+      <c r="BT4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BS4" s="8" t="s">
+      <c r="BU4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="BT4" s="8" t="s">
+      <c r="BV4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="BU4" s="9" t="s">
+      <c r="BW4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="BV4" s="9" t="s">
+      <c r="BX4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BW4" s="9" t="s">
+      <c r="BY4" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="BX4" s="9" t="s">
+      <c r="BZ4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="BY4" s="9" t="s">
+      <c r="CA4" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="BZ4" s="9" t="s">
+      <c r="CB4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="CA4" s="9" t="s">
+      <c r="CC4" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="CB4" s="9" t="s">
+      <c r="CD4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="CC4" s="9" t="s">
+      <c r="CE4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="CD4" s="9" t="s">
+      <c r="CF4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="CE4" s="9" t="s">
+      <c r="CG4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="CF4" s="9" t="s">
+      <c r="CH4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="CG4" s="9" t="s">
+      <c r="CI4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="CH4" s="9" t="s">
+      <c r="CJ4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="CI4" s="9" t="s">
+      <c r="CK4" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="CJ4" s="9" t="s">
+      <c r="CL4" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="CK4" s="9" t="s">
+      <c r="CM4" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="CL4" s="9" t="s">
+      <c r="CN4" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="CM4" s="9" t="s">
+      <c r="CO4" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="CN4" s="1" t="s">
+      <c r="CP4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:94">
       <c r="A5" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2577,10 +2630,10 @@
         <v>8</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>36</v>
@@ -2589,10 +2642,10 @@
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>8</v>
@@ -2613,76 +2666,76 @@
         <v>8</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="X5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="AA5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AM5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AN5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AO5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="AQ5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AR5" s="8" t="s">
         <v>8</v>
@@ -2699,10 +2752,10 @@
       <c r="AV5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AW5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AW5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AY5" s="8" t="s">
@@ -2723,23 +2776,23 @@
       <c r="BD5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BE5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>17</v>
+      <c r="BE5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="BI5" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BJ5" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BK5" s="8" t="s">
         <v>8</v>
@@ -2756,14 +2809,14 @@
       <c r="BO5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BP5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
+      <c r="BP5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="BR5" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="BS5" s="8" t="s">
         <v>8</v>
@@ -2771,71 +2824,81 @@
       <c r="BT5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BU5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BW5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI5" s="9" t="s">
+      <c r="BU5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="CJ5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CM5" s="9" t="s">
+      <c r="CL5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="CN5" s="1" t="str">
-        <f>_xlfn.CONCAT(C5:CM5)</f>
-        <v>00000XXXXXXXXXXXXXXXX00000000XXXXXXXX000000XXXXXXXX0000000XXXXXXXX00XXXXXXXX00000000000000000XXXX000000000XXXX0XXXX00000XXXX0XXXX0000XXXX0X0XXXX0X</v>
+      <c r="CP5" s="1" t="str">
+        <f>_xlfn.CONCAT(C5:CO5)</f>
+        <v>0000000XXXXXXXXXXXXXXXX00000000XXXXXXXX000000XXXXXXXX0000000XXXXXXXX00XXXXXXXX00000000000000000XXXX000000000XXXX0XXXX00000XXXX0XXXX0000XXXX0X0XXXX0X</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AJ1:AM1"/>
+  <mergeCells count="5">
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:CA1"/>
+    <mergeCell ref="CB1:CH1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2846,11 +2909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44691E38-30DF-411C-B13D-7557B62A3905}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -2876,65 +2939,65 @@
     <col min="46" max="46" width="64.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="18" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="14" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="14" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="16"/>
+      <c r="AR1" s="14"/>
       <c r="AS1" s="3" t="s">
         <v>111</v>
       </c>
@@ -2942,7 +3005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -3081,7 +3144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="98" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="112">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>91</v>
@@ -3219,7 +3282,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>92</v>
@@ -3357,8 +3420,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:46">
+      <c r="A5" s="19"/>
       <c r="B5" s="6" t="s">
         <v>93</v>
       </c>
@@ -3496,8 +3559,8 @@
         <v>0110XXXX010101000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:46">
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>119</v>
       </c>
@@ -3635,8 +3698,8 @@
         <v>0000XXXXXXXXXX111000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:46">
+      <c r="A7" s="19"/>
       <c r="B7" s="7" t="s">
         <v>95</v>
       </c>
@@ -3774,8 +3837,8 @@
         <v>0000XXXXXXXXXX000011000000XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:46">
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>96</v>
       </c>
@@ -3913,8 +3976,8 @@
         <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:46">
+      <c r="A9" s="19"/>
       <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
@@ -4052,8 +4115,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:46">
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>98</v>
       </c>
@@ -4191,8 +4254,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000100000000000XX</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:46">
+      <c r="A11" s="19"/>
       <c r="B11" s="7" t="s">
         <v>99</v>
       </c>
@@ -4330,8 +4393,8 @@
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:46">
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>100</v>
       </c>
@@ -4469,7 +4532,7 @@
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4520,8 +4583,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:46">
+      <c r="A14" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4661,8 +4724,8 @@
         <v>1000XX00XX00XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:46">
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
@@ -4800,8 +4863,8 @@
         <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:46">
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
@@ -4939,8 +5002,8 @@
         <v>000101XXXXXXXX000010000100XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:46">
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>96</v>
       </c>
@@ -5078,8 +5141,8 @@
         <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:46">
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
@@ -5217,8 +5280,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:46">
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>98</v>
       </c>
@@ -5356,8 +5419,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000100000000000XX</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:46">
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>99</v>
       </c>
@@ -5495,8 +5558,8 @@
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:46">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>100</v>
       </c>
@@ -5656,10 +5719,10 @@
   <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="A5" sqref="A5:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -5685,65 +5748,65 @@
     <col min="46" max="46" width="64.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="18" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="14" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="14" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="16"/>
+      <c r="AR1" s="14"/>
       <c r="AS1" s="7" t="s">
         <v>111</v>
       </c>
@@ -5751,7 +5814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -5890,7 +5953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="98" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="112">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>91</v>
@@ -6028,7 +6091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>92</v>
@@ -6166,8 +6229,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:46">
+      <c r="A5" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -6307,8 +6370,8 @@
         <v>0110XXXX010101000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:46">
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -6446,8 +6509,8 @@
         <v>0000XXXXXXXXXX111000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:46">
+      <c r="A7" s="19"/>
       <c r="B7" s="7" t="s">
         <v>95</v>
       </c>
@@ -6585,8 +6648,8 @@
         <v>0000XXXXXXXXXX000011000000XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:46">
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>96</v>
       </c>
@@ -6724,8 +6787,8 @@
         <v>0000XXXXXXXXXX000000XXXX110011000000000110000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:46">
+      <c r="A9" s="19"/>
       <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
@@ -6863,8 +6926,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0001000XXXX0001000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:46">
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>98</v>
       </c>
@@ -7002,8 +7065,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:46">
+      <c r="A11" s="19"/>
       <c r="B11" s="7" t="s">
         <v>99</v>
       </c>
@@ -7141,8 +7204,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:46">
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>100</v>
       </c>
@@ -7280,8 +7343,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000000100000110XX</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:46">
+      <c r="A13" s="19"/>
       <c r="B13" s="7" t="s">
         <v>120</v>
       </c>
@@ -7419,8 +7482,8 @@
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:46">
+      <c r="A14" s="20"/>
       <c r="B14" s="7" t="s">
         <v>121</v>
       </c>
@@ -7558,7 +7621,7 @@
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7609,8 +7672,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:46">
+      <c r="A16" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -7750,8 +7813,8 @@
         <v>0110XXXX010101000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:46">
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>119</v>
       </c>
@@ -7889,8 +7952,8 @@
         <v>0000XXXXXXXXXX111000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:46">
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>95</v>
       </c>
@@ -8028,8 +8091,8 @@
         <v>0000XXXXXXXXXX000011000000XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+    <row r="19" spans="1:46">
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>96</v>
       </c>
@@ -8167,8 +8230,8 @@
         <v>0000XXXXXXXXXX000000XXXX110100000000001000000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+    <row r="20" spans="1:46">
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>97</v>
       </c>
@@ -8306,8 +8369,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000100XXXX0000100000000XXXX0XX</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:46">
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>98</v>
       </c>
@@ -8445,8 +8508,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:46">
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
       </c>
@@ -8584,8 +8647,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:46">
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>100</v>
       </c>
@@ -8723,8 +8786,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:46">
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>120</v>
       </c>
@@ -8862,8 +8925,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+    <row r="25" spans="1:46">
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
         <v>121</v>
       </c>
@@ -9001,8 +9064,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:46">
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>125</v>
       </c>
@@ -9140,8 +9203,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:46">
+      <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
         <v>126</v>
       </c>
@@ -9279,8 +9342,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:46">
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
         <v>127</v>
       </c>
@@ -9418,8 +9481,8 @@
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000000010001000XX</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:46">
+      <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
         <v>128</v>
       </c>
@@ -9557,8 +9620,8 @@
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:46">
+      <c r="A30" s="20"/>
       <c r="B30" s="7" t="s">
         <v>129</v>
       </c>
